--- a/Calibracion_errores.xlsx
+++ b/Calibracion_errores.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LabVision\Desktop\Chaya-Paula---Proyecto-de-Graduacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A57F6A-3826-4FC0-94A3-72F6C1F003B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E56109-A55F-4ED0-AB25-3CA785B42A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibraciones" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Sujeto</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Izquierdo</t>
   </si>
   <si>
-    <t>Micaela</t>
-  </si>
-  <si>
     <t>Error X [mm]</t>
   </si>
   <si>
@@ -91,6 +88,42 @@
   </si>
   <si>
     <t>Desv Y [mm]</t>
+  </si>
+  <si>
+    <t>Agostina</t>
+  </si>
+  <si>
+    <t>Tobías</t>
+  </si>
+  <si>
+    <t>Josefina</t>
+  </si>
+  <si>
+    <t>Pau Aguirre</t>
+  </si>
+  <si>
+    <t>Maira</t>
+  </si>
+  <si>
+    <t>Paula Chaya</t>
+  </si>
+  <si>
+    <t>Error maximo X</t>
+  </si>
+  <si>
+    <t>Error maximo Y</t>
+  </si>
+  <si>
+    <t>Calculo los errores con una doble desviacion</t>
+  </si>
+  <si>
+    <t>Promedios</t>
+  </si>
+  <si>
+    <t>Error X</t>
+  </si>
+  <si>
+    <t>Error Y</t>
   </si>
 </sst>
 </file>
@@ -98,9 +131,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +153,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,12 +187,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -231,11 +272,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,31 +301,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -291,10 +373,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,325 +692,881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BC1241-605F-44BA-9F45-56863D47BCAF}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="L1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="O1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2">
+        <f>AVERAGE(G3:G33)</f>
+        <v>13.269856546153857</v>
+      </c>
+      <c r="P3" s="6">
+        <f>AVERAGE(H4:H33)</f>
+        <v>6.5092364883350129</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:R3" si="0">AVERAGE(I4:I33)</f>
+        <v>8.8182697920780608</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="0"/>
+        <v>7.3168417744700402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12">
-        <v>-493.37295736194199</v>
-      </c>
-      <c r="D4" s="12">
-        <v>2.60970331820088</v>
-      </c>
-      <c r="E4" s="12">
-        <v>313.01742305066603</v>
-      </c>
-      <c r="F4" s="12">
-        <v>-2.7777447983140799</v>
-      </c>
-      <c r="G4" s="12">
-        <v>11.604634709929099</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1.9410998171332099</v>
-      </c>
-      <c r="I4" s="12">
-        <v>6.3709150811789499</v>
-      </c>
-      <c r="J4" s="12">
-        <v>4.8160115028701904</v>
-      </c>
-      <c r="L4" s="12">
-        <f>AVERAGE(G4:G13)</f>
-        <v>12.592006177482276</v>
-      </c>
-      <c r="M4" s="12">
-        <f>AVERAGE(H4:H13)</f>
-        <v>5.0461656042833027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="C4" s="6">
+        <v>2.7923061936337401</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-628.41124643236606</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-3.0997158451891198</v>
+      </c>
+      <c r="F4" s="6">
+        <v>254.10376481503201</v>
+      </c>
+      <c r="G4" s="6">
+        <v>8.9669366773243997</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6.7842690993458401</v>
+      </c>
+      <c r="I4" s="6">
+        <v>7.1232685697287197</v>
+      </c>
+      <c r="J4" s="6">
+        <v>4.47117106099964</v>
+      </c>
+      <c r="L4" s="6">
+        <f>G4+(2*H4)</f>
+        <v>22.535474876016082</v>
+      </c>
+      <c r="M4" s="6">
+        <f>I4+(2*J4)</f>
+        <v>16.065610691728001</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12">
-        <v>-409.137410822547</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2.2866080000000002</v>
-      </c>
-      <c r="E5" s="12">
-        <v>209.45920599999999</v>
-      </c>
-      <c r="F5" s="12">
-        <v>-2.9493</v>
-      </c>
-      <c r="G5" s="12">
-        <v>11.75549</v>
-      </c>
-      <c r="H5" s="12">
-        <v>7.3994625999999997</v>
-      </c>
-      <c r="I5" s="12">
-        <v>11.447327</v>
-      </c>
-      <c r="J5" s="12">
-        <v>6.0484514000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>12</v>
+      <c r="C5" s="6">
+        <v>2.5480861776977002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>-524.48606782351703</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-2.9351222934620602</v>
+      </c>
+      <c r="F5" s="6">
+        <v>297.79405480960997</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4.5503593621241301</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.5347535751477099</v>
+      </c>
+      <c r="I5" s="6">
+        <v>12.966670137194599</v>
+      </c>
+      <c r="J5" s="6">
+        <v>18.4215097878688</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:L33" si="1">G5+(2*H5)</f>
+        <v>7.6198665124195504</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M33" si="2">I5+(2*J5)</f>
+        <v>49.809689712932197</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.5808727501019399</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-605.60432107882298</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-2.9443183912282298</v>
+      </c>
+      <c r="F6" s="6">
+        <v>307.77941582972397</v>
+      </c>
+      <c r="G6" s="6">
+        <v>21.6489678920316</v>
+      </c>
+      <c r="H6" s="6">
+        <v>10.676289154651901</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3.9503046392702199</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3.8126204424514198</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="1"/>
+        <v>43.001546201335401</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="2"/>
+        <v>11.575545524173059</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12">
-        <v>-587.51179999999999</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2.8161999999999998</v>
-      </c>
-      <c r="E6" s="12">
-        <v>263.23349999999999</v>
-      </c>
-      <c r="F6" s="12">
-        <v>-2.7827999999999999</v>
-      </c>
-      <c r="G6" s="12">
-        <v>12.8514</v>
-      </c>
-      <c r="H6" s="12">
-        <v>3.9278</v>
-      </c>
-      <c r="I6" s="12">
-        <v>12.8514</v>
-      </c>
-      <c r="J6" s="12">
-        <v>8.2936999999999994</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12">
-        <v>-785.08230000000003</v>
-      </c>
-      <c r="D7" s="12">
-        <v>3.0930800000000001</v>
-      </c>
-      <c r="E7" s="12">
-        <v>371.00099999999998</v>
-      </c>
-      <c r="F7" s="12">
-        <v>-2.6204990000000001</v>
-      </c>
-      <c r="G7" s="12">
-        <v>14.156499999999999</v>
-      </c>
-      <c r="H7" s="12">
-        <v>6.9162999999999997</v>
-      </c>
-      <c r="I7" s="12">
-        <v>33.377299999999998</v>
-      </c>
-      <c r="J7" s="12">
-        <v>11.000249999999999</v>
-      </c>
-      <c r="L7" s="12">
-        <f>AVERAGE(I4:I13)</f>
-        <v>16.011735520294735</v>
-      </c>
-      <c r="M7" s="12">
-        <f>AVERAGE(J4:J13)</f>
-        <v>7.5396032257175474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="C7" s="6">
+        <v>2.3093308263647598</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-560.23460227677299</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-2.9438572812335599</v>
+      </c>
+      <c r="F7" s="6">
+        <v>388.49680481596698</v>
+      </c>
+      <c r="G7" s="6">
+        <v>17.913162253135301</v>
+      </c>
+      <c r="H7" s="6">
+        <v>7.0416341241945997</v>
+      </c>
+      <c r="I7" s="6">
+        <v>11.2328358221187</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2.5620658065602999</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="1"/>
+        <v>31.9964305015245</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="2"/>
+        <v>16.356967435239298</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="6">
+        <f>O3+(2*P3)</f>
+        <v>26.288329522823883</v>
+      </c>
+      <c r="Q8" s="15">
+        <f>Q3+(2*R3)</f>
+        <v>23.45195334101814</v>
+      </c>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="L9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="L10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="L11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="L12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="L13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="L14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="L15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="L16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="L17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="L18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="L19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="L20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="L21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="L22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="L23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="L24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="L25" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="L26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="L27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="L28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="L29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="L30" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="L31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="L32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="L33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="23">
+    <mergeCell ref="L1:M2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="P5:Q6"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -940,10 +1574,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBF2B2A-410C-41FC-BBA4-A8473B279300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C0A946-5830-4083-ADA7-A6D9975D79C4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Calibracion_errores.xlsx
+++ b/Calibracion_errores.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LabVision\Desktop\Chaya-Paula---Proyecto-de-Graduacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E56109-A55F-4ED0-AB25-3CA785B42A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BCFD8-5571-4E39-B8D5-B937B58CEA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
+    <workbookView xWindow="10200" yWindow="0" windowWidth="10200" windowHeight="11520" firstSheet="1" activeTab="1" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibraciones" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Calibraciones 28-10" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Sujeto</t>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>Error Y</t>
+  </si>
+  <si>
+    <t>Micaela</t>
+  </si>
+  <si>
+    <t>Flor Narbaja</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Jose Barraza</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -166,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,31 +331,43 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,19 +376,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BC1241-605F-44BA-9F45-56863D47BCAF}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,50 +743,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="L1" s="22" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="L1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="O1" s="23" t="s">
+      <c r="M1" s="13"/>
+      <c r="O1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="13"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
       <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
@@ -777,8 +801,8 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
@@ -803,10 +827,10 @@
       <c r="J3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="O3" s="2">
@@ -827,7 +851,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -869,32 +893,32 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="24">
         <v>2.5480861776977002</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="24">
         <v>-524.48606782351703</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="24">
         <v>-2.9351222934620602</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="24">
         <v>297.79405480960997</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="24">
         <v>4.5503593621241301</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="24">
         <v>1.5347535751477099</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="24">
         <v>12.966670137194599</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="24">
         <v>18.4215097878688</v>
       </c>
       <c r="L5" s="6">
@@ -905,15 +929,15 @@
         <f t="shared" ref="M5:M33" si="2">I5+(2*J5)</f>
         <v>49.809689712932197</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="22" t="s">
+      <c r="O5" s="8"/>
+      <c r="P5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="22"/>
+      <c r="Q5" s="13"/>
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -951,13 +975,12 @@
         <f t="shared" si="2"/>
         <v>11.575545524173059</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -993,17 +1016,16 @@
         <f t="shared" si="2"/>
         <v>16.356967435239298</v>
       </c>
-      <c r="O7" s="14"/>
       <c r="P7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2"/>
@@ -1023,19 +1045,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="12"/>
+      <c r="O8" s="8"/>
       <c r="P8" s="6">
         <f>O3+(2*P3)</f>
         <v>26.288329522823883</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="9">
         <f>Q3+(2*R3)</f>
         <v>23.45195334101814</v>
       </c>
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1055,7 +1077,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2"/>
@@ -1077,7 +1099,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1097,7 +1119,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2"/>
@@ -1119,7 +1141,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1139,7 +1161,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2"/>
@@ -1161,7 +1183,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -1181,7 +1203,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="2"/>
@@ -1203,7 +1225,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -1223,7 +1245,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1243,7 +1265,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
@@ -1263,7 +1285,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1283,7 +1305,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
@@ -1303,7 +1325,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1323,7 +1345,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
@@ -1343,7 +1365,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1363,7 +1385,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
@@ -1383,7 +1405,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1403,7 +1425,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
@@ -1423,7 +1445,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1443,7 +1465,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -1463,7 +1485,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1483,7 +1505,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
@@ -1503,7 +1525,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1523,7 +1545,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
@@ -1549,6 +1571,11 @@
     <mergeCell ref="P5:Q6"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
@@ -1557,11 +1584,6 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
@@ -1575,14 +1597,626 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C0A946-5830-4083-ADA7-A6D9975D79C4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.3504808654618601</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-471.30597942018397</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-2.3570166516743698</v>
+      </c>
+      <c r="F4" s="6">
+        <v>297.19784717006797</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3.9293362871817501</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3.7136725042179601</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5.4708409829385998</v>
+      </c>
+      <c r="J4" s="6">
+        <v>6.9393250960967503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="24">
+        <v>2.5044864214543798</v>
+      </c>
+      <c r="D6" s="24">
+        <v>-345.35517293491398</v>
+      </c>
+      <c r="E6" s="24">
+        <v>-2.2837084044968501</v>
+      </c>
+      <c r="F6" s="24">
+        <v>379.55457575718401</v>
+      </c>
+      <c r="G6" s="24">
+        <v>9.1137153383738099</v>
+      </c>
+      <c r="H6" s="24">
+        <v>4.4971092413411604</v>
+      </c>
+      <c r="I6" s="24">
+        <v>6.1406645086217004</v>
+      </c>
+      <c r="J6" s="24">
+        <v>3.4079598141597902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.2151632844532498</v>
+      </c>
+      <c r="D7" s="6">
+        <v>-470.434443892209</v>
+      </c>
+      <c r="E7" s="6">
+        <v>-2.4456714476999499</v>
+      </c>
+      <c r="F7" s="6">
+        <v>439.48955686878702</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.44755300674165</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.5345306175524902</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3.0936966884976398</v>
+      </c>
+      <c r="J7" s="6">
+        <v>2.4193174691633099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="24">
+        <v>2.26912605025209</v>
+      </c>
+      <c r="D8" s="24">
+        <v>-469.69240765181399</v>
+      </c>
+      <c r="E8" s="24">
+        <v>-2.22257493052772</v>
+      </c>
+      <c r="F8" s="24">
+        <v>264.12143506528599</v>
+      </c>
+      <c r="G8" s="24">
+        <v>8.9875394015453995</v>
+      </c>
+      <c r="H8" s="24">
+        <v>2.0452539975528299</v>
+      </c>
+      <c r="I8" s="24">
+        <v>8.5025327245788596</v>
+      </c>
+      <c r="J8" s="24">
+        <v>5.31396963044876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2.1524495752827302</v>
+      </c>
+      <c r="D9" s="24">
+        <v>-517.68522530231303</v>
+      </c>
+      <c r="E9" s="24">
+        <v>-2.0102491339809201</v>
+      </c>
+      <c r="F9" s="24">
+        <v>257.71590980883798</v>
+      </c>
+      <c r="G9" s="24">
+        <v>5.9020423152450698</v>
+      </c>
+      <c r="H9" s="24">
+        <v>7.1906962552009901</v>
+      </c>
+      <c r="I9" s="24">
+        <v>8.6026676926960608</v>
+      </c>
+      <c r="J9" s="24">
+        <v>7.1562243918420103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.17885125271737</v>
+      </c>
+      <c r="D10" s="6">
+        <v>-554.87010504862803</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-2.6055315359878701</v>
+      </c>
+      <c r="F10" s="6">
+        <v>372.14398217685601</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6.7437582400281704</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4.03839024941745</v>
+      </c>
+      <c r="I10" s="6">
+        <v>9.2355964993933597</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5.9792444740617698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.3624702102224102</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-530.94780864300105</v>
+      </c>
+      <c r="E11" s="6">
+        <v>-2.5796671693561999</v>
+      </c>
+      <c r="F11" s="6">
+        <v>360.52113234482999</v>
+      </c>
+      <c r="G11" s="6">
+        <v>14.2317036040887</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4.0635973413950204</v>
+      </c>
+      <c r="I11" s="6">
+        <v>9.0187109320150807</v>
+      </c>
+      <c r="J11" s="6">
+        <v>6.40516047247272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2.3900114882608201</v>
+      </c>
+      <c r="D12" s="24">
+        <v>-471.35947160390998</v>
+      </c>
+      <c r="E12" s="24">
+        <v>-2.65887078145676</v>
+      </c>
+      <c r="F12" s="24">
+        <v>250.715874275011</v>
+      </c>
+      <c r="G12" s="24">
+        <v>9.2484072001622497</v>
+      </c>
+      <c r="H12" s="24">
+        <v>5.4885956152872</v>
+      </c>
+      <c r="I12" s="24">
+        <v>9.1872588220758402</v>
+      </c>
+      <c r="J12" s="24">
+        <v>4.7491509132266296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Calibracion_errores.xlsx
+++ b/Calibracion_errores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LabVision\Desktop\Chaya-Paula---Proyecto-de-Graduacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a9cf9957cfd094d/Escritorio/Chaya^JPaula - Proyecto de Graduacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED3FF34-8AAD-4228-93C2-3762F70C1AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{6ED3FF34-8AAD-4228-93C2-3762F70C1AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54C79600-D5DC-4E59-8542-31E6286D8361}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibraciones" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Sujeto</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Lourdes</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Augusto</t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,49 +291,40 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C0A946-5830-4083-ADA7-A6D9975D79C4}">
   <dimension ref="B2:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,42 +682,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,21 +744,21 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>45589</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -793,7 +790,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
@@ -823,7 +820,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -855,8 +852,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="5">
@@ -885,27 +882,27 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
+      <c r="B10" s="14">
         <v>45593</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="5">
         <v>2.3504808654618601</v>
       </c>
       <c r="E11" s="5">
@@ -931,23 +928,23 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -979,7 +976,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1009,7 +1006,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1041,7 +1038,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="10"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1071,7 +1068,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1103,7 +1100,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1133,7 +1130,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1165,39 +1162,39 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+      <c r="B21" s="14">
         <v>45594</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="13">
         <v>2.10549260518895</v>
       </c>
       <c r="E22" s="7">
@@ -1223,21 +1220,21 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="16" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1269,7 +1266,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="6" t="s">
         <v>23</v>
       </c>
@@ -1299,7 +1296,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -1331,7 +1328,7 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="10"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="6" t="s">
         <v>23</v>
       </c>
@@ -1361,23 +1358,23 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="10"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="6" t="s">
         <v>23</v>
       </c>
@@ -1407,74 +1404,229 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+      <c r="D30" s="7">
+        <v>2.3913175805046798</v>
+      </c>
+      <c r="E30" s="7">
+        <v>-596.53409810339804</v>
+      </c>
+      <c r="F30" s="7">
+        <v>-2.7369228681862601</v>
+      </c>
+      <c r="G30" s="7">
+        <v>255.23818189122301</v>
+      </c>
+      <c r="H30" s="7">
+        <v>8.9100024163804203</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5.4447831438866201</v>
+      </c>
+      <c r="J30" s="7">
+        <v>6.5887393165013499</v>
+      </c>
+      <c r="K30" s="7">
+        <v>3.4263361311294802</v>
+      </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="D31" s="7">
+        <v>2.5248803705766498</v>
+      </c>
+      <c r="E31" s="7">
+        <v>-518.39878373244096</v>
+      </c>
+      <c r="F31" s="7">
+        <v>-2.2691752252848798</v>
+      </c>
+      <c r="G31" s="7">
+        <v>356.02691880241798</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8.0952580001168499</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6.2928422718980297</v>
+      </c>
+      <c r="J31" s="7">
+        <v>10.2180750337474</v>
+      </c>
+      <c r="K31" s="7">
+        <v>2.11094075326691</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1.8939740079432199</v>
+      </c>
+      <c r="E32" s="7">
+        <v>-463.62905402776698</v>
+      </c>
+      <c r="F32" s="7">
+        <v>-2.7689454982296899</v>
+      </c>
+      <c r="G32" s="7">
+        <v>337.72991121054503</v>
+      </c>
+      <c r="H32" s="7">
+        <v>18.870132056369801</v>
+      </c>
+      <c r="I32" s="7">
+        <v>10.6070131215185</v>
+      </c>
+      <c r="J32" s="7">
+        <v>8.2905485799935903</v>
+      </c>
+      <c r="K32" s="7">
+        <v>6.2449109302914403</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="17"/>
+      <c r="C33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2.5106088196510701</v>
+      </c>
+      <c r="E33" s="7">
+        <v>-493.45770212122301</v>
+      </c>
+      <c r="F33" s="7">
+        <v>-3.5533826340056298</v>
+      </c>
+      <c r="G33" s="7">
+        <v>470.36160763417098</v>
+      </c>
+      <c r="H33" s="7">
+        <v>5.2181281349610504</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1.71841622772657</v>
+      </c>
+      <c r="J33" s="7">
+        <v>10.0695999090646</v>
+      </c>
+      <c r="K33" s="7">
+        <v>2.0929950810593301</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calibracion_errores.xlsx
+++ b/Calibracion_errores.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LabVision\Desktop\Chaya-Paula---Proyecto-de-Graduacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a9cf9957cfd094d/Escritorio/Chaya^JPaula - Proyecto de Graduacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CFD0A0-467C-42FE-9E04-B6A60A6D02E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{D5CFD0A0-467C-42FE-9E04-B6A60A6D02E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5597EAE5-96DC-4DAA-AB2A-5CF5D6D6C78D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="2" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibraciones" sheetId="3" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="5" r:id="rId3"/>
+    <sheet name="Cal. Pruebas Finales" sheetId="7" r:id="rId4"/>
+    <sheet name="Cal. Pruebas Piloto" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="39">
   <si>
     <t>Sujeto</t>
   </si>
@@ -150,6 +152,12 @@
   <si>
     <t>Nico</t>
   </si>
+  <si>
+    <t>Calibración</t>
+  </si>
+  <si>
+    <t>Desviación Y [mm]</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -308,11 +316,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,25 +359,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,28 +396,34 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1232,6 +1264,527 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error de calibración </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>en eje  Y [mm]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cal. Pruebas Piloto'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error Y [mm]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Cal. Pruebas Piloto'!$E$11:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.47117106099964</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.4215097878688</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8126204424514198</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5620658065602999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Cal. Pruebas Piloto'!$E$11:$E$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.47117106099964</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.4215097878688</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.8126204424514198</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.5620658065602999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cal. Pruebas Piloto'!$D$11:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.1232685697287197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.966670137194599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9503046392702199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.2328358221187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA94-4A33-A443-7DCEF90C1ADB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="220085952"/>
+        <c:axId val="220101792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220085952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220101792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220101792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milímetros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220085952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2857,6 +3410,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17934311670160727"/>
+          <c:y val="3.888888888888889E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4773,7 +5334,1763 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error  de calibración</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>en Eje X [mm]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cal. Pruebas Finales'!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error X [mm]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Cal. Pruebas Finales'!$F$4:$F$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>4.4971092413411604</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5345306175524902</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0452539975528299</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.1906962552009901</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.03839024941745</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0635973413950204</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.9147551543461496</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0088470260778402</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.8300481802305404</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.58131252406573</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.4447831438866201</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.2928422718980297</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>10.6070131215185</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.71841622772657</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Cal. Pruebas Finales'!$F$4:$F$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>4.4971092413411604</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5345306175524902</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0452539975528299</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.1906962552009901</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.03839024941745</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.0635973413950204</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.9147551543461496</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.0088470260778402</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.8300481802305404</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.58131252406573</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5.4447831438866201</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>6.2928422718980297</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>10.6070131215185</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>1.71841622772657</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cal. Pruebas Finales'!$E$4:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9.1137153383738099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.44755300674165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9875394015453995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9020423152450698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7437582400281704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.2317036040887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2463032822057398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.567001458043499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9515758273272903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5478251379270596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9100024163804203</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0952580001168499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.870132056369801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2181281349610504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D74-4C31-8577-CF4D23D95322}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="220095072"/>
+        <c:axId val="220093152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220095072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220093152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220093152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milímetros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220095072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cal. Pruebas Finales'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error Y [mm]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Cal. Pruebas Finales'!$H$4:$H$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>3.4079598141597902</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4193174691633099</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.31396963044876</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.1562243918420103</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.9792444740617698</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.40516047247272</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.29087145296279</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.59277062346627</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.3147709201179101</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.3494784045216903</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.4263361311294802</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.11094075326691</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.2449109302914403</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.0929950810593301</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Cal. Pruebas Finales'!$H$4:$H$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="14"/>
+                  <c:pt idx="0">
+                    <c:v>3.4079598141597902</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4193174691633099</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.31396963044876</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.1562243918420103</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.9792444740617698</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.40516047247272</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.29087145296279</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.59277062346627</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5.3147709201179101</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5.3494784045216903</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.4263361311294802</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.11094075326691</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.2449109302914403</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2.0929950810593301</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cal. Pruebas Finales'!$G$4:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.1406645086217004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0936966884976398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5025327245788596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6026676926960608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2355964993933597</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0187109320150807</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0256738752794998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2891147264368801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.6528919421985293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2989072856799502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5887393165013499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.2180750337474</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.2905485799935903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.0695999090646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F404-46D3-893C-29A9E7A50D2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1153315584"/>
+        <c:axId val="1153316544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1153315584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1153316544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1153316544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milímetros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1153315584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Error  de calibración </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>en eje X [mm]</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cal. Pruebas Piloto'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Error X [mm]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Cal. Pruebas Piloto'!$E$3:$E$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.7842690993458401</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5347535751477099</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.676289154651901</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.0416341241945997</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Cal. Pruebas Piloto'!$E$3:$E$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>6.7842690993458401</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5347535751477099</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>10.676289154651901</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.0416341241945997</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cal. Pruebas Piloto'!$D$3:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.9669366773243997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5503593621241301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.6489678920316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.913162253135301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C7B-4ACC-B1DF-F00033E6FB85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="220081152"/>
+        <c:axId val="220089312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220081152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Prueba</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220089312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220089312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Milímetros</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-AR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220081152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5013,6 +7330,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5516,7 +7953,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6019,7 +8456,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6522,7 +8959,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7025,7 +9462,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7528,8 +9965,2020 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8113,15 +12562,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8149,13 +12598,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>466724</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>752474</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8249,6 +12698,160 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF07BF-CD33-F9CB-4915-0A27C0030CB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F6AD93-024A-9A6B-09C1-A475DBD07DEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335445</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>306456</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140803</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6E8C0-C545-41D7-B1C7-306503DDD0B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>46381</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3976EC43-88E8-6C09-FE4E-2A1CF584F649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8576,14 +13179,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C0A946-5830-4083-ADA7-A6D9975D79C4}">
   <dimension ref="B2:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="4" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="4" hidden="1" customWidth="1"/>
@@ -8596,47 +13199,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -8663,7 +13266,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6">
@@ -8698,7 +13301,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="6">
         <v>2</v>
       </c>
@@ -8731,7 +13334,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="6">
@@ -8766,7 +13369,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="6">
         <v>4</v>
       </c>
@@ -8799,478 +13402,478 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="11">
         <v>5</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="12">
         <v>2.5044864214543798</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="12">
         <v>-345.35517293491398</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="12">
         <v>-2.2837084044968501</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="12">
         <v>379.55457575718401</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="12">
         <v>9.1137153383738099</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="12">
         <v>4.4971092413411604</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="12">
         <v>6.1406645086217004</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="12">
         <v>3.4079598141597902</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="11">
         <v>6</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="12">
         <v>2.2151632844532498</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="12">
         <v>-470.434443892209</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="12">
         <v>-2.4456714476999499</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="12">
         <v>439.48955686878702</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="12">
         <v>2.44755300674165</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="12">
         <v>2.5345306175524902</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="12">
         <v>3.0936966884976398</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="12">
         <v>2.4193174691633099</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="11">
         <v>7</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="12">
         <v>2.26912605025209</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="12">
         <v>-469.69240765181399</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="12">
         <v>-2.22257493052772</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="12">
         <v>264.12143506528599</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="12">
         <v>8.9875394015453995</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="12">
         <v>2.0452539975528299</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="12">
         <v>8.5025327245788596</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="12">
         <v>5.31396963044876</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="11">
         <v>8</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="12">
         <v>2.1524495752827302</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="12">
         <v>-517.68522530231303</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="12">
         <v>-2.0102491339809201</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="12">
         <v>257.71590980883798</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="12">
         <v>5.9020423152450698</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="12">
         <v>7.1906962552009901</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="12">
         <v>8.6026676926960608</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="12">
         <v>7.1562243918420103</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="11">
         <v>9</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="12">
         <v>2.17885125271737</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="12">
         <v>-554.87010504862803</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="12">
         <v>-2.6055315359878701</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="12">
         <v>372.14398217685601</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="12">
         <v>6.7437582400281704</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="12">
         <v>4.03839024941745</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="12">
         <v>9.2355964993933597</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="12">
         <v>5.9792444740617698</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="11">
         <v>10</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="12">
         <v>2.3624702102224102</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="12">
         <v>-530.94780864300105</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="12">
         <v>-2.5796671693561999</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="12">
         <v>360.52113234482999</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="12">
         <v>14.2317036040887</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="12">
         <v>4.0635973413950204</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="12">
         <v>9.0187109320150807</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="12">
         <v>6.40516047247272</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="11">
         <v>13</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="12">
         <v>2.1211244501539701</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="12">
         <v>-547.17212562317502</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="12">
         <v>-2.1368017310484002</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="12">
         <v>296.56503632928099</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="12">
         <v>7.2463032822057398</v>
       </c>
-      <c r="J15" s="26">
+      <c r="J15" s="12">
         <v>6.9147551543461496</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="12">
         <v>5.0256738752794998</v>
       </c>
-      <c r="L15" s="26">
+      <c r="L15" s="12">
         <v>3.29087145296279</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
-      <c r="C16" s="25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="11">
         <v>14</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="12">
         <v>2.3174245296074898</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="12">
         <v>-563.34999925374996</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="12">
         <v>-2.73051765950221</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="12">
         <v>269.973241138037</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="12">
         <v>10.567001458043499</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="12">
         <v>3.0088470260778402</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="12">
         <v>7.2891147264368801</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="12">
         <v>3.59277062346627</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="11">
         <v>15</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="12">
         <v>2.4477430265490101</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="12">
         <v>-546.83659099734302</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="12">
         <v>-2.54717165398052</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="12">
         <v>334.11650141600302</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="12">
         <v>5.9515758273272903</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="12">
         <v>5.8300481802305404</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="12">
         <v>8.6528919421985293</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="12">
         <v>5.3147709201179101</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="11">
         <v>16</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="12">
         <v>2.5472796041798702</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="12">
         <v>-433.26853600801599</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="12">
         <v>-2.8875049825205599</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="12">
         <v>385.97024321500902</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="12">
         <v>5.5478251379270596</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="12">
         <v>5.58131252406573</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="12">
         <v>2.2989072856799502</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="12">
         <v>5.3494784045216903</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="11">
         <v>18</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="12">
         <v>2.3913175805046798</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="12">
         <v>-596.53409810339804</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="12">
         <v>-2.7369228681862601</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="12">
         <v>255.23818189122301</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="12">
         <v>8.9100024163804203</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="12">
         <v>5.4447831438866201</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="12">
         <v>6.5887393165013499</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="12">
         <v>3.4263361311294802</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="11">
         <v>19</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="12">
         <v>2.5248803705766498</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="12">
         <v>-518.39878373244096</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="12">
         <v>-2.2691752252848798</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="12">
         <v>356.02691880241798</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="12">
         <v>8.0952580001168499</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="12">
         <v>6.2928422718980297</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="12">
         <v>10.2180750337474</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="12">
         <v>2.11094075326691</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="11">
         <v>20</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="12">
         <v>1.8939740079432199</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="12">
         <v>-463.62905402776698</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="12">
         <v>-2.7689454982296899</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="12">
         <v>337.72991121054503</v>
       </c>
-      <c r="I21" s="26">
+      <c r="I21" s="12">
         <v>18.870132056369801</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J21" s="12">
         <v>10.6070131215185</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="12">
         <v>8.2905485799935903</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="12">
         <v>6.2449109302914403</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="11">
         <v>21</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="12">
         <v>2.5106088196510701</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="12">
         <v>-493.45770212122301</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="12">
         <v>-3.5533826340056298</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="12">
         <v>470.36160763417098</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="12">
         <v>5.2181281349610504</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="12">
         <v>1.71841622772657</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="12">
         <v>10.0695999090646</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="12">
         <v>2.0929950810593301</v>
       </c>
     </row>
@@ -9281,31 +13884,31 @@
       <c r="C23" s="2">
         <v>11</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="5">
         <v>2.3900114882608201</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="5">
         <v>-471.35947160390998</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="5">
         <v>-2.65887078145676</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="5">
         <v>250.715874275011</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="5">
         <v>9.2484072001622497</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="5">
         <v>5.4885956152872</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="5">
         <v>9.1872588220758402</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="5">
         <v>4.7491509132266296</v>
       </c>
     </row>
@@ -9316,31 +13919,31 @@
       <c r="C24" s="2">
         <v>12</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="13">
         <v>2.10549260518895</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="5">
         <v>-461.44863544948703</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="5">
         <v>-2.7161290071061801</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="5">
         <v>373.20810849847902</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="5">
         <v>6.1317311605037004</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="5">
         <v>2.1960602511526601</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="5">
         <v>10.7069035739655</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="5">
         <v>8.3980895957010908</v>
       </c>
     </row>
@@ -9351,31 +13954,31 @@
       <c r="C25" s="2">
         <v>17</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="5">
         <v>2.2638363213440802</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="5">
         <v>-423.96438597446001</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="5">
         <v>-2.7236541693591798</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="5">
         <v>336.01748189876099</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="5">
         <v>9.4137860362558392</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="5">
         <v>2.8292438432361999</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="5">
         <v>9.5688379567633692</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="5">
         <v>5.9518032361716804</v>
       </c>
     </row>
@@ -9389,10 +13992,10 @@
       <c r="D26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="5">
         <v>14.2317036040887</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="5">
         <v>4.0635973413950204</v>
       </c>
       <c r="G26" s="5">
@@ -9403,22 +14006,22 @@
         <f>E26-F26</f>
         <v>10.16810626269368</v>
       </c>
-      <c r="I26" s="12">
+      <c r="I26" s="5">
         <v>9.0187109320150807</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="5">
         <v>6.40516047247272</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="5">
         <v>9.0187109320150807</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="5">
         <v>6.40516047247272</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27"/>
-      <c r="C27" s="15"/>
+      <c r="C27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -9430,7 +14033,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28"/>
-      <c r="C28" s="15"/>
+      <c r="C28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -9442,7 +14045,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29"/>
-      <c r="C29" s="15"/>
+      <c r="C29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
@@ -9454,12 +14057,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B2:B4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E3:H3"/>
@@ -9469,6 +14066,12 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9498,19 +14101,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -9557,10 +14160,10 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="5">
         <v>8.9669366773243997</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="5">
         <v>6.7842690993458401</v>
       </c>
       <c r="F4" s="5">
@@ -9571,10 +14174,10 @@
         <f>D4-E4</f>
         <v>2.1826675779785596</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="5">
         <v>7.1232685697287197</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="5">
         <v>4.47117106099964</v>
       </c>
       <c r="J4" s="5">
@@ -9596,10 +14199,10 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="5">
         <v>4.5503593621241301</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="5">
         <v>1.5347535751477099</v>
       </c>
       <c r="F5" s="5">
@@ -9610,10 +14213,10 @@
         <f t="shared" ref="G5:G21" si="1">D5-E5</f>
         <v>3.0156057869764199</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="5">
         <v>12.966670137194599</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="5">
         <v>18.4215097878688</v>
       </c>
       <c r="J5" s="5">
@@ -9635,10 +14238,10 @@
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="5">
         <v>21.6489678920316</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="5">
         <v>10.676289154651901</v>
       </c>
       <c r="F6" s="5">
@@ -9649,10 +14252,10 @@
         <f t="shared" si="1"/>
         <v>10.972678737379699</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="5">
         <v>3.9503046392702199</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="5">
         <v>3.8126204424514198</v>
       </c>
       <c r="J6" s="5">
@@ -9674,10 +14277,10 @@
       <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="5">
         <v>17.913162253135301</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="5">
         <v>7.0416341241945997</v>
       </c>
       <c r="F7" s="5">
@@ -9688,10 +14291,10 @@
         <f t="shared" si="1"/>
         <v>10.871528128940701</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="5">
         <v>11.2328358221187</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="5">
         <v>2.5620658065602999</v>
       </c>
       <c r="J7" s="5">
@@ -9713,10 +14316,10 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="5">
         <v>9.1137153383738099</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="5">
         <v>4.4971092413411604</v>
       </c>
       <c r="F8" s="5">
@@ -9727,10 +14330,10 @@
         <f t="shared" si="1"/>
         <v>4.6166060970326495</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="5">
         <v>6.1406645086217004</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="5">
         <v>3.4079598141597902</v>
       </c>
       <c r="J8" s="5">
@@ -9752,10 +14355,10 @@
       <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="5">
         <v>2.44755300674165</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="5">
         <v>2.5345306175524902</v>
       </c>
       <c r="F9" s="5">
@@ -9766,10 +14369,10 @@
         <f t="shared" si="1"/>
         <v>-8.6977610810840211E-2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="5">
         <v>3.0936966884976398</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="5">
         <v>2.4193174691633099</v>
       </c>
       <c r="J9" s="5">
@@ -9791,10 +14394,10 @@
       <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="5">
         <v>8.9875394015453995</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="5">
         <v>2.0452539975528299</v>
       </c>
       <c r="F10" s="5">
@@ -9805,10 +14408,10 @@
         <f t="shared" si="1"/>
         <v>6.9422854039925692</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="5">
         <v>8.5025327245788596</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="5">
         <v>5.31396963044876</v>
       </c>
       <c r="J10" s="5">
@@ -9830,10 +14433,10 @@
       <c r="C11" s="2">
         <v>8</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="5">
         <v>5.9020423152450698</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="5">
         <v>7.1906962552009901</v>
       </c>
       <c r="F11" s="5">
@@ -9844,10 +14447,10 @@
         <f t="shared" si="1"/>
         <v>-1.2886539399559203</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="5">
         <v>8.6026676926960608</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="5">
         <v>7.1562243918420103</v>
       </c>
       <c r="J11" s="5">
@@ -9869,10 +14472,10 @@
       <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="5">
         <v>6.7437582400281704</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="5">
         <v>4.03839024941745</v>
       </c>
       <c r="F12" s="5">
@@ -9883,10 +14486,10 @@
         <f t="shared" si="1"/>
         <v>2.7053679906107204</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="5">
         <v>9.2355964993933597</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="5">
         <v>5.9792444740617698</v>
       </c>
       <c r="J12" s="5">
@@ -9908,10 +14511,10 @@
       <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="5">
         <v>14.2317036040887</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="5">
         <v>4.0635973413950204</v>
       </c>
       <c r="F13" s="5">
@@ -9922,10 +14525,10 @@
         <f t="shared" si="1"/>
         <v>10.16810626269368</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="5">
         <v>9.0187109320150807</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="5">
         <v>6.40516047247272</v>
       </c>
       <c r="J13" s="5">
@@ -9947,10 +14550,10 @@
       <c r="C14" s="2">
         <v>11</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="5">
         <v>7.2463032822057398</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="5">
         <v>6.9147551543461496</v>
       </c>
       <c r="F14" s="5">
@@ -9961,10 +14564,10 @@
         <f t="shared" si="1"/>
         <v>0.3315481278595902</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="5">
         <v>5.0256738752794998</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="5">
         <v>3.29087145296279</v>
       </c>
       <c r="J14" s="5">
@@ -9986,10 +14589,10 @@
       <c r="C15" s="2">
         <v>12</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="5">
         <v>10.567001458043499</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="5">
         <v>3.0088470260778402</v>
       </c>
       <c r="F15" s="5">
@@ -10000,10 +14603,10 @@
         <f t="shared" si="1"/>
         <v>7.5581544319656597</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="5">
         <v>7.2891147264368801</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="5">
         <v>3.59277062346627</v>
       </c>
       <c r="J15" s="5">
@@ -10025,10 +14628,10 @@
       <c r="C16" s="2">
         <v>13</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="5">
         <v>5.9515758273272903</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="5">
         <v>5.8300481802305404</v>
       </c>
       <c r="F16" s="5">
@@ -10039,10 +14642,10 @@
         <f t="shared" si="1"/>
         <v>0.1215276470967499</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="5">
         <v>8.6528919421985293</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="5">
         <v>5.3147709201179101</v>
       </c>
       <c r="J16" s="5">
@@ -10064,10 +14667,10 @@
       <c r="C17" s="2">
         <v>14</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="5">
         <v>5.5478251379270596</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="5">
         <v>5.58131252406573</v>
       </c>
       <c r="F17" s="5">
@@ -10078,10 +14681,10 @@
         <f t="shared" si="1"/>
         <v>-3.3487386138670416E-2</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="5">
         <v>2.2989072856799502</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="5">
         <v>5.3494784045216903</v>
       </c>
       <c r="J17" s="5">
@@ -10103,10 +14706,10 @@
       <c r="C18" s="2">
         <v>15</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="5">
         <v>8.9100024163804203</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="5">
         <v>5.4447831438866201</v>
       </c>
       <c r="F18" s="5">
@@ -10117,10 +14720,10 @@
         <f t="shared" si="1"/>
         <v>3.4652192724938002</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="5">
         <v>6.5887393165013499</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="5">
         <v>3.4263361311294802</v>
       </c>
       <c r="J18" s="5">
@@ -10142,10 +14745,10 @@
       <c r="C19" s="2">
         <v>16</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="5">
         <v>8.0952580001168499</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="5">
         <v>6.2928422718980297</v>
       </c>
       <c r="F19" s="5">
@@ -10156,10 +14759,10 @@
         <f t="shared" si="1"/>
         <v>1.8024157282188202</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="5">
         <v>10.2180750337474</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="5">
         <v>2.11094075326691</v>
       </c>
       <c r="J19" s="5">
@@ -10181,10 +14784,10 @@
       <c r="C20" s="2">
         <v>17</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="5">
         <v>18.870132056369801</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="5">
         <v>10.6070131215185</v>
       </c>
       <c r="F20" s="5">
@@ -10195,10 +14798,10 @@
         <f t="shared" si="1"/>
         <v>8.2631189348513008</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="5">
         <v>8.2905485799935903</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="5">
         <v>6.2449109302914403</v>
       </c>
       <c r="J20" s="5">
@@ -10220,10 +14823,10 @@
       <c r="C21" s="2">
         <v>18</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="5">
         <v>5.2181281349610504</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="5">
         <v>1.71841622772657</v>
       </c>
       <c r="F21" s="5">
@@ -10234,10 +14837,10 @@
         <f t="shared" si="1"/>
         <v>3.4997119072344804</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="5">
         <v>10.0695999090646</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="5">
         <v>2.0929950810593301</v>
       </c>
       <c r="J21" s="5">
@@ -10259,10 +14862,10 @@
       <c r="C22" s="2">
         <v>19</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="5">
         <v>9.2484072001622497</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="5">
         <v>5.4885956152872</v>
       </c>
       <c r="F22" s="5">
@@ -10273,10 +14876,10 @@
         <f>D22-E22</f>
         <v>3.7598115848750497</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="5">
         <v>9.1872588220758402</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="5">
         <v>4.7491509132266296</v>
       </c>
       <c r="J22" s="5">
@@ -10298,10 +14901,10 @@
       <c r="C23" s="2">
         <v>20</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="5">
         <v>6.1317311605037004</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="5">
         <v>2.1960602511526601</v>
       </c>
       <c r="F23" s="5">
@@ -10312,10 +14915,10 @@
         <f>D23-E23</f>
         <v>3.9356709093510402</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="5">
         <v>10.7069035739655</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="5">
         <v>8.3980895957010908</v>
       </c>
       <c r="J23" s="5">
@@ -10337,10 +14940,10 @@
       <c r="C24" s="2">
         <v>21</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="5">
         <v>9.4137860362558392</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="5">
         <v>2.8292438432361999</v>
       </c>
       <c r="F24" s="5">
@@ -10348,13 +14951,13 @@
         <v>12.243029879492038</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" ref="G24:G25" si="5">D24-E24</f>
+        <f t="shared" ref="G24" si="5">D24-E24</f>
         <v>6.5845421930196393</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="5">
         <v>9.5688379567633692</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="5">
         <v>5.9518032361716804</v>
       </c>
       <c r="J24" s="5">
@@ -10362,7 +14965,7 @@
         <v>15.520641192935049</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" ref="K24:K25" si="6">H24-I24</f>
+        <f t="shared" ref="K24" si="6">H24-I24</f>
         <v>3.6170347205916888</v>
       </c>
     </row>
@@ -10376,10 +14979,10 @@
       <c r="C25" s="2">
         <v>22</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="5">
         <v>14.2317036040887</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="5">
         <v>4.0635973413950204</v>
       </c>
       <c r="F25" s="5">
@@ -10390,10 +14993,10 @@
         <f>D25-E25</f>
         <v>10.16810626269368</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="5">
         <v>9.0187109320150807</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="5">
         <v>6.40516047247272</v>
       </c>
       <c r="J25" s="5">
@@ -10419,7 +15022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D060A4-61F2-4F75-A2E3-48D0E810F8F5}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -10433,16 +15036,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -10462,18 +15065,18 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="5">
         <v>8.9669366773243997</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="5">
         <v>6.7842690993458401</v>
       </c>
-      <c r="D3" s="13">
-        <f>B3+C3</f>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D13" si="0">B3+C3</f>
         <v>15.75120577667024</v>
       </c>
-      <c r="E3" s="13">
-        <f>B3-C3</f>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E13" si="1">B3-C3</f>
         <v>2.1826675779785596</v>
       </c>
     </row>
@@ -10481,18 +15084,18 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="5">
         <v>21.6489678920316</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="5">
         <v>10.676289154651901</v>
       </c>
-      <c r="D4" s="13">
-        <f>B4+C4</f>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
         <v>32.325257046683504</v>
       </c>
-      <c r="E4" s="13">
-        <f>B4-C4</f>
+      <c r="E4" s="9">
+        <f t="shared" si="1"/>
         <v>10.972678737379699</v>
       </c>
     </row>
@@ -10500,18 +15103,18 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="5">
         <v>9.1137153383738099</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="5">
         <v>4.4971092413411604</v>
       </c>
-      <c r="D5" s="13">
-        <f>B5+C5</f>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
         <v>13.61082457971497</v>
       </c>
-      <c r="E5" s="13">
-        <f>B5-C5</f>
+      <c r="E5" s="9">
+        <f t="shared" si="1"/>
         <v>4.6166060970326495</v>
       </c>
     </row>
@@ -10519,18 +15122,18 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="5">
         <v>8.9875394015453995</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="5">
         <v>2.0452539975528299</v>
       </c>
-      <c r="D6" s="13">
-        <f>B6+C6</f>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
         <v>11.03279339909823</v>
       </c>
-      <c r="E6" s="13">
-        <f>B6-C6</f>
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
         <v>6.9422854039925692</v>
       </c>
     </row>
@@ -10538,18 +15141,18 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="5">
         <v>6.7437582400281704</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="5">
         <v>4.03839024941745</v>
       </c>
-      <c r="D7" s="13">
-        <f>B7+C7</f>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
         <v>10.782148489445621</v>
       </c>
-      <c r="E7" s="13">
-        <f>B7-C7</f>
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
         <v>2.7053679906107204</v>
       </c>
     </row>
@@ -10557,18 +15160,18 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="5">
         <v>9.2484072001622497</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="5">
         <v>5.4885956152872</v>
       </c>
-      <c r="D8" s="13">
-        <f>B8+C8</f>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
         <v>14.737002815449451</v>
       </c>
-      <c r="E8" s="13">
-        <f>B8-C8</f>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
         <v>3.7598115848750497</v>
       </c>
     </row>
@@ -10576,18 +15179,18 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="5">
         <v>6.1317311605037004</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="5">
         <v>2.1960602511526601</v>
       </c>
-      <c r="D9" s="13">
-        <f>B9+C9</f>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
         <v>8.3277914116563601</v>
       </c>
-      <c r="E9" s="13">
-        <f>B9-C9</f>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
         <v>3.9356709093510402</v>
       </c>
     </row>
@@ -10595,18 +15198,18 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="5">
         <v>7.2463032822057398</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="5">
         <v>6.9147551543461496</v>
       </c>
-      <c r="D10" s="13">
-        <f>B10+C10</f>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
         <v>14.16105843655189</v>
       </c>
-      <c r="E10" s="13">
-        <f>B10-C10</f>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
         <v>0.3315481278595902</v>
       </c>
     </row>
@@ -10614,18 +15217,18 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="5">
         <v>5.9515758273272903</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="5">
         <v>5.8300481802305404</v>
       </c>
-      <c r="D11" s="13">
-        <f>B11+C11</f>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
         <v>11.781624007557831</v>
       </c>
-      <c r="E11" s="13">
-        <f>B11-C11</f>
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
         <v>0.1215276470967499</v>
       </c>
     </row>
@@ -10633,18 +15236,18 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="5">
         <v>8.9100024163804203</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="5">
         <v>5.4447831438866201</v>
       </c>
-      <c r="D12" s="13">
-        <f>B12+C12</f>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
         <v>14.35478556026704</v>
       </c>
-      <c r="E12" s="13">
-        <f>B12-C12</f>
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
         <v>3.4652192724938002</v>
       </c>
     </row>
@@ -10652,23 +15255,23 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="5">
         <v>18.870132056369801</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="5">
         <v>10.6070131215185</v>
       </c>
-      <c r="D13" s="13">
-        <f>B13+C13</f>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
         <v>29.477145177888303</v>
       </c>
-      <c r="E13" s="13">
-        <f>B13-C13</f>
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
         <v>8.2631189348513008</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -10688,18 +15291,18 @@
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="5">
         <v>7.1232685697287197</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="5">
         <v>4.47117106099964</v>
       </c>
-      <c r="D15" s="13">
-        <f>B15+C15</f>
+      <c r="D15" s="9">
+        <f t="shared" ref="D15:D25" si="2">B15+C15</f>
         <v>11.59443963072836</v>
       </c>
-      <c r="E15" s="13">
-        <f>B15-C15</f>
+      <c r="E15" s="9">
+        <f t="shared" ref="E15:E25" si="3">B15-C15</f>
         <v>2.6520975087290797</v>
       </c>
     </row>
@@ -10707,18 +15310,18 @@
       <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="5">
         <v>3.9503046392702199</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="5">
         <v>3.8126204424514198</v>
       </c>
-      <c r="D16" s="13">
-        <f>B16+C16</f>
+      <c r="D16" s="9">
+        <f t="shared" si="2"/>
         <v>7.7629250817216402</v>
       </c>
-      <c r="E16" s="13">
-        <f>B16-C16</f>
+      <c r="E16" s="9">
+        <f t="shared" si="3"/>
         <v>0.13768419681880006</v>
       </c>
     </row>
@@ -10726,18 +15329,18 @@
       <c r="A17" s="2">
         <v>3</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="5">
         <v>6.1406645086217004</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="5">
         <v>3.4079598141597902</v>
       </c>
-      <c r="D17" s="13">
-        <f>B17+C17</f>
+      <c r="D17" s="9">
+        <f t="shared" si="2"/>
         <v>9.5486243227814906</v>
       </c>
-      <c r="E17" s="13">
-        <f>B17-C17</f>
+      <c r="E17" s="9">
+        <f t="shared" si="3"/>
         <v>2.7327046944619102</v>
       </c>
     </row>
@@ -10745,18 +15348,18 @@
       <c r="A18" s="2">
         <v>4</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="5">
         <v>8.5025327245788596</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="5">
         <v>5.31396963044876</v>
       </c>
-      <c r="D18" s="13">
-        <f>B18+C18</f>
+      <c r="D18" s="9">
+        <f t="shared" si="2"/>
         <v>13.81650235502762</v>
       </c>
-      <c r="E18" s="13">
-        <f>B18-C18</f>
+      <c r="E18" s="9">
+        <f t="shared" si="3"/>
         <v>3.1885630941300995</v>
       </c>
     </row>
@@ -10764,18 +15367,18 @@
       <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="5">
         <v>9.2355964993933597</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="5">
         <v>5.9792444740617698</v>
       </c>
-      <c r="D19" s="13">
-        <f>B19+C19</f>
+      <c r="D19" s="9">
+        <f t="shared" si="2"/>
         <v>15.214840973455129</v>
       </c>
-      <c r="E19" s="13">
-        <f>B19-C19</f>
+      <c r="E19" s="9">
+        <f t="shared" si="3"/>
         <v>3.2563520253315899</v>
       </c>
     </row>
@@ -10783,18 +15386,18 @@
       <c r="A20" s="2">
         <v>6</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="5">
         <v>9.1872588220758402</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="5">
         <v>4.7491509132266296</v>
       </c>
-      <c r="D20" s="13">
-        <f>B20+C20</f>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
         <v>13.936409735302469</v>
       </c>
-      <c r="E20" s="13">
-        <f>B20-C20</f>
+      <c r="E20" s="9">
+        <f t="shared" si="3"/>
         <v>4.4381079088492106</v>
       </c>
     </row>
@@ -10802,18 +15405,18 @@
       <c r="A21" s="2">
         <v>7</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="5">
         <v>10.7069035739655</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="5">
         <v>8.3980895957010908</v>
       </c>
-      <c r="D21" s="13">
-        <f>B21+C21</f>
+      <c r="D21" s="9">
+        <f t="shared" si="2"/>
         <v>19.104993169666592</v>
       </c>
-      <c r="E21" s="13">
-        <f>B21-C21</f>
+      <c r="E21" s="9">
+        <f t="shared" si="3"/>
         <v>2.3088139782644088</v>
       </c>
     </row>
@@ -10821,18 +15424,18 @@
       <c r="A22" s="2">
         <v>8</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="5">
         <v>5.0256738752794998</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="5">
         <v>3.29087145296279</v>
       </c>
-      <c r="D22" s="13">
-        <f>B22+C22</f>
+      <c r="D22" s="9">
+        <f t="shared" si="2"/>
         <v>8.3165453282422899</v>
       </c>
-      <c r="E22" s="13">
-        <f>B22-C22</f>
+      <c r="E22" s="9">
+        <f t="shared" si="3"/>
         <v>1.7348024223167098</v>
       </c>
     </row>
@@ -10840,18 +15443,18 @@
       <c r="A23" s="2">
         <v>9</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="5">
         <v>8.6528919421985293</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="5">
         <v>5.3147709201179101</v>
       </c>
-      <c r="D23" s="13">
-        <f>B23+C23</f>
+      <c r="D23" s="9">
+        <f t="shared" si="2"/>
         <v>13.967662862316439</v>
       </c>
-      <c r="E23" s="13">
-        <f>B23-C23</f>
+      <c r="E23" s="9">
+        <f t="shared" si="3"/>
         <v>3.3381210220806192</v>
       </c>
     </row>
@@ -10859,18 +15462,18 @@
       <c r="A24" s="2">
         <v>10</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="5">
         <v>6.5887393165013499</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="5">
         <v>3.4263361311294802</v>
       </c>
-      <c r="D24" s="13">
-        <f>B24+C24</f>
+      <c r="D24" s="9">
+        <f t="shared" si="2"/>
         <v>10.01507544763083</v>
       </c>
-      <c r="E24" s="13">
-        <f>B24-C24</f>
+      <c r="E24" s="9">
+        <f t="shared" si="3"/>
         <v>3.1624031853718697</v>
       </c>
     </row>
@@ -10878,32 +15481,32 @@
       <c r="A25" s="2">
         <v>11</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="5">
         <v>8.2905485799935903</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <v>6.2449109302914403</v>
       </c>
-      <c r="D25" s="13">
-        <f>B25+C25</f>
+      <c r="D25" s="9">
+        <f t="shared" si="2"/>
         <v>14.53545951028503</v>
       </c>
-      <c r="E25" s="13">
-        <f>B25-C25</f>
+      <c r="E25" s="9">
+        <f t="shared" si="3"/>
         <v>2.04563764970215</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -10923,18 +15526,18 @@
       <c r="A31" s="2">
         <v>1</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="5">
         <v>4.5503593621241301</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="5">
         <v>1.5347535751477099</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="9">
         <f>B31+C31</f>
         <v>6.0851129372718402</v>
       </c>
-      <c r="E31" s="13">
-        <f>B31-C31</f>
+      <c r="E31" s="9">
+        <f t="shared" ref="E31:E40" si="4">B31-C31</f>
         <v>3.0156057869764199</v>
       </c>
     </row>
@@ -10942,18 +15545,18 @@
       <c r="A32" s="2">
         <v>2</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="5">
         <v>17.913162253135301</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="5">
         <v>7.0416341241945997</v>
       </c>
-      <c r="D32" s="13">
-        <f t="shared" ref="D32:D40" si="0">B32+C32</f>
+      <c r="D32" s="9">
+        <f t="shared" ref="D32:D40" si="5">B32+C32</f>
         <v>24.954796377329899</v>
       </c>
-      <c r="E32" s="13">
-        <f>B32-C32</f>
+      <c r="E32" s="9">
+        <f t="shared" si="4"/>
         <v>10.871528128940701</v>
       </c>
     </row>
@@ -10961,18 +15564,18 @@
       <c r="A33" s="2">
         <v>3</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="5">
         <v>2.44755300674165</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="5">
         <v>2.5345306175524902</v>
       </c>
-      <c r="D33" s="13">
-        <f t="shared" si="0"/>
+      <c r="D33" s="9">
+        <f t="shared" si="5"/>
         <v>4.9820836242941402</v>
       </c>
-      <c r="E33" s="13">
-        <f>B33-C33</f>
+      <c r="E33" s="9">
+        <f t="shared" si="4"/>
         <v>-8.6977610810840211E-2</v>
       </c>
     </row>
@@ -10980,18 +15583,18 @@
       <c r="A34" s="2">
         <v>4</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="5">
         <v>5.9020423152450698</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="5">
         <v>7.1906962552009901</v>
       </c>
-      <c r="D34" s="13">
-        <f t="shared" si="0"/>
+      <c r="D34" s="9">
+        <f t="shared" si="5"/>
         <v>13.092738570446059</v>
       </c>
-      <c r="E34" s="13">
-        <f>B34-C34</f>
+      <c r="E34" s="9">
+        <f t="shared" si="4"/>
         <v>-1.2886539399559203</v>
       </c>
     </row>
@@ -10999,18 +15602,18 @@
       <c r="A35" s="2">
         <v>5</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="5">
         <v>14.2317036040887</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="5">
         <v>4.0635973413950204</v>
       </c>
-      <c r="D35" s="13">
-        <f t="shared" si="0"/>
+      <c r="D35" s="9">
+        <f t="shared" si="5"/>
         <v>18.295300945483721</v>
       </c>
-      <c r="E35" s="13">
-        <f>B35-C35</f>
+      <c r="E35" s="9">
+        <f t="shared" si="4"/>
         <v>10.16810626269368</v>
       </c>
     </row>
@@ -11018,18 +15621,18 @@
       <c r="A36" s="2">
         <v>6</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="5">
         <v>10.567001458043499</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="5">
         <v>3.0088470260778402</v>
       </c>
-      <c r="D36" s="13">
-        <f t="shared" si="0"/>
+      <c r="D36" s="9">
+        <f t="shared" si="5"/>
         <v>13.575848484121339</v>
       </c>
-      <c r="E36" s="13">
-        <f>B36-C36</f>
+      <c r="E36" s="9">
+        <f t="shared" si="4"/>
         <v>7.5581544319656597</v>
       </c>
     </row>
@@ -11037,18 +15640,18 @@
       <c r="A37" s="2">
         <v>7</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="5">
         <v>5.5478251379270596</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="5">
         <v>5.58131252406573</v>
       </c>
-      <c r="D37" s="13">
-        <f t="shared" si="0"/>
+      <c r="D37" s="9">
+        <f t="shared" si="5"/>
         <v>11.12913766199279</v>
       </c>
-      <c r="E37" s="13">
-        <f>B37-C37</f>
+      <c r="E37" s="9">
+        <f t="shared" si="4"/>
         <v>-3.3487386138670416E-2</v>
       </c>
     </row>
@@ -11056,18 +15659,18 @@
       <c r="A38" s="2">
         <v>8</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="5">
         <v>9.4137860362558392</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="5">
         <v>2.8292438432361999</v>
       </c>
-      <c r="D38" s="13">
-        <f t="shared" si="0"/>
+      <c r="D38" s="9">
+        <f t="shared" si="5"/>
         <v>12.243029879492038</v>
       </c>
-      <c r="E38" s="13">
-        <f>B38-C38</f>
+      <c r="E38" s="9">
+        <f t="shared" si="4"/>
         <v>6.5845421930196393</v>
       </c>
     </row>
@@ -11075,18 +15678,18 @@
       <c r="A39" s="2">
         <v>9</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="5">
         <v>8.0952580001168499</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="5">
         <v>6.2928422718980297</v>
       </c>
-      <c r="D39" s="13">
-        <f t="shared" si="0"/>
+      <c r="D39" s="9">
+        <f t="shared" si="5"/>
         <v>14.38810027201488</v>
       </c>
-      <c r="E39" s="13">
-        <f>B39-C39</f>
+      <c r="E39" s="9">
+        <f t="shared" si="4"/>
         <v>1.8024157282188202</v>
       </c>
     </row>
@@ -11094,23 +15697,23 @@
       <c r="A40" s="2">
         <v>10</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="5">
         <v>5.2181281349610504</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="5">
         <v>1.71841622772657</v>
       </c>
-      <c r="D40" s="13">
-        <f t="shared" si="0"/>
+      <c r="D40" s="9">
+        <f t="shared" si="5"/>
         <v>6.93654436268762</v>
       </c>
-      <c r="E40" s="13">
-        <f>B40-C40</f>
+      <c r="E40" s="9">
+        <f t="shared" si="4"/>
         <v>3.4997119072344804</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -11130,18 +15733,18 @@
       <c r="A42" s="8">
         <v>1</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="5">
         <v>12.966670137194599</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="5">
         <v>18.4215097878688</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="9">
         <f>B42+C42</f>
         <v>31.388179925063397</v>
       </c>
-      <c r="E42" s="13">
-        <f>B42-C42</f>
+      <c r="E42" s="9">
+        <f t="shared" ref="E42:E51" si="6">B42-C42</f>
         <v>-5.4548396506742005</v>
       </c>
     </row>
@@ -11149,18 +15752,18 @@
       <c r="A43" s="8">
         <v>2</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="5">
         <v>11.2328358221187</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="5">
         <v>2.5620658065602999</v>
       </c>
-      <c r="D43" s="13">
-        <f t="shared" ref="D43:D51" si="1">B43+C43</f>
+      <c r="D43" s="9">
+        <f t="shared" ref="D43:D51" si="7">B43+C43</f>
         <v>13.794901628679</v>
       </c>
-      <c r="E43" s="13">
-        <f>B43-C43</f>
+      <c r="E43" s="9">
+        <f t="shared" si="6"/>
         <v>8.6707700155584</v>
       </c>
     </row>
@@ -11168,18 +15771,18 @@
       <c r="A44" s="8">
         <v>3</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="5">
         <v>3.0936966884976398</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="5">
         <v>2.4193174691633099</v>
       </c>
-      <c r="D44" s="13">
-        <f t="shared" si="1"/>
+      <c r="D44" s="9">
+        <f t="shared" si="7"/>
         <v>5.5130141576609493</v>
       </c>
-      <c r="E44" s="13">
-        <f>B44-C44</f>
+      <c r="E44" s="9">
+        <f t="shared" si="6"/>
         <v>0.67437921933432987</v>
       </c>
     </row>
@@ -11187,18 +15790,18 @@
       <c r="A45" s="8">
         <v>4</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="5">
         <v>8.6026676926960608</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="5">
         <v>7.1562243918420103</v>
       </c>
-      <c r="D45" s="13">
-        <f t="shared" si="1"/>
+      <c r="D45" s="9">
+        <f t="shared" si="7"/>
         <v>15.758892084538072</v>
       </c>
-      <c r="E45" s="13">
-        <f>B45-C45</f>
+      <c r="E45" s="9">
+        <f t="shared" si="6"/>
         <v>1.4464433008540505</v>
       </c>
     </row>
@@ -11206,18 +15809,18 @@
       <c r="A46" s="8">
         <v>5</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="5">
         <v>9.0187109320150807</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="5">
         <v>6.40516047247272</v>
       </c>
-      <c r="D46" s="13">
-        <f t="shared" si="1"/>
+      <c r="D46" s="9">
+        <f t="shared" si="7"/>
         <v>15.423871404487802</v>
       </c>
-      <c r="E46" s="13">
-        <f>B46-C46</f>
+      <c r="E46" s="9">
+        <f t="shared" si="6"/>
         <v>2.6135504595423606</v>
       </c>
     </row>
@@ -11225,18 +15828,18 @@
       <c r="A47" s="8">
         <v>6</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="5">
         <v>7.2891147264368801</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="5">
         <v>3.59277062346627</v>
       </c>
-      <c r="D47" s="13">
-        <f t="shared" si="1"/>
+      <c r="D47" s="9">
+        <f t="shared" si="7"/>
         <v>10.88188534990315</v>
       </c>
-      <c r="E47" s="13">
-        <f>B47-C47</f>
+      <c r="E47" s="9">
+        <f t="shared" si="6"/>
         <v>3.6963441029706101</v>
       </c>
     </row>
@@ -11244,18 +15847,18 @@
       <c r="A48" s="8">
         <v>7</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="5">
         <v>2.2989072856799502</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="5">
         <v>5.3494784045216903</v>
       </c>
-      <c r="D48" s="13">
-        <f t="shared" si="1"/>
+      <c r="D48" s="9">
+        <f t="shared" si="7"/>
         <v>7.6483856902016409</v>
       </c>
-      <c r="E48" s="13">
-        <f>B48-C48</f>
+      <c r="E48" s="9">
+        <f t="shared" si="6"/>
         <v>-3.0505711188417401</v>
       </c>
     </row>
@@ -11263,18 +15866,18 @@
       <c r="A49" s="8">
         <v>8</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="5">
         <v>9.5688379567633692</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="5">
         <v>5.9518032361716804</v>
       </c>
-      <c r="D49" s="13">
-        <f t="shared" si="1"/>
+      <c r="D49" s="9">
+        <f t="shared" si="7"/>
         <v>15.520641192935049</v>
       </c>
-      <c r="E49" s="13">
-        <f>B49-C49</f>
+      <c r="E49" s="9">
+        <f t="shared" si="6"/>
         <v>3.6170347205916888</v>
       </c>
     </row>
@@ -11282,18 +15885,18 @@
       <c r="A50" s="8">
         <v>9</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="5">
         <v>10.2180750337474</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="5">
         <v>2.11094075326691</v>
       </c>
-      <c r="D50" s="13">
-        <f t="shared" si="1"/>
+      <c r="D50" s="9">
+        <f t="shared" si="7"/>
         <v>12.32901578701431</v>
       </c>
-      <c r="E50" s="13">
-        <f>B50-C50</f>
+      <c r="E50" s="9">
+        <f t="shared" si="6"/>
         <v>8.1071342804804907</v>
       </c>
     </row>
@@ -11301,18 +15904,18 @@
       <c r="A51" s="8">
         <v>10</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="5">
         <v>10.0695999090646</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="5">
         <v>2.0929950810593301</v>
       </c>
-      <c r="D51" s="13">
-        <f t="shared" si="1"/>
+      <c r="D51" s="9">
+        <f t="shared" si="7"/>
         <v>12.16259499012393</v>
       </c>
-      <c r="E51" s="13">
-        <f>B51-C51</f>
+      <c r="E51" s="9">
+        <f t="shared" si="6"/>
         <v>7.9766048280052697</v>
       </c>
     </row>
@@ -11324,4 +15927,603 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04031061-6920-495F-BBCB-BEF72E8D7A53}">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="31">
+        <v>9.1137153383738099</v>
+      </c>
+      <c r="F4" s="31">
+        <v>4.4971092413411604</v>
+      </c>
+      <c r="G4" s="31">
+        <v>6.1406645086217004</v>
+      </c>
+      <c r="H4" s="31">
+        <v>3.4079598141597902</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="31">
+        <v>2.44755300674165</v>
+      </c>
+      <c r="F5" s="31">
+        <v>2.5345306175524902</v>
+      </c>
+      <c r="G5" s="31">
+        <v>3.0936966884976398</v>
+      </c>
+      <c r="H5" s="31">
+        <v>2.4193174691633099</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="29">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30">
+        <v>3</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="31">
+        <v>8.9875394015453995</v>
+      </c>
+      <c r="F6" s="31">
+        <v>2.0452539975528299</v>
+      </c>
+      <c r="G6" s="31">
+        <v>8.5025327245788596</v>
+      </c>
+      <c r="H6" s="31">
+        <v>5.31396963044876</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30">
+        <v>4</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="31">
+        <v>5.9020423152450698</v>
+      </c>
+      <c r="F7" s="31">
+        <v>7.1906962552009901</v>
+      </c>
+      <c r="G7" s="31">
+        <v>8.6026676926960608</v>
+      </c>
+      <c r="H7" s="31">
+        <v>7.1562243918420103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="29">
+        <v>3</v>
+      </c>
+      <c r="C8" s="30">
+        <v>5</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="31">
+        <v>6.7437582400281704</v>
+      </c>
+      <c r="F8" s="31">
+        <v>4.03839024941745</v>
+      </c>
+      <c r="G8" s="31">
+        <v>9.2355964993933597</v>
+      </c>
+      <c r="H8" s="31">
+        <v>5.9792444740617698</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30">
+        <v>6</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="31">
+        <v>14.2317036040887</v>
+      </c>
+      <c r="F9" s="31">
+        <v>4.0635973413950204</v>
+      </c>
+      <c r="G9" s="31">
+        <v>9.0187109320150807</v>
+      </c>
+      <c r="H9" s="31">
+        <v>6.40516047247272</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="29">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30">
+        <v>7</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="31">
+        <v>7.2463032822057398</v>
+      </c>
+      <c r="F10" s="31">
+        <v>6.9147551543461496</v>
+      </c>
+      <c r="G10" s="31">
+        <v>5.0256738752794998</v>
+      </c>
+      <c r="H10" s="31">
+        <v>3.29087145296279</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30">
+        <v>8</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="31">
+        <v>10.567001458043499</v>
+      </c>
+      <c r="F11" s="31">
+        <v>3.0088470260778402</v>
+      </c>
+      <c r="G11" s="31">
+        <v>7.2891147264368801</v>
+      </c>
+      <c r="H11" s="31">
+        <v>3.59277062346627</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="29">
+        <v>5</v>
+      </c>
+      <c r="C12" s="30">
+        <v>9</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="31">
+        <v>5.9515758273272903</v>
+      </c>
+      <c r="F12" s="31">
+        <v>5.8300481802305404</v>
+      </c>
+      <c r="G12" s="31">
+        <v>8.6528919421985293</v>
+      </c>
+      <c r="H12" s="31">
+        <v>5.3147709201179101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30">
+        <v>10</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="31">
+        <v>5.5478251379270596</v>
+      </c>
+      <c r="F13" s="31">
+        <v>5.58131252406573</v>
+      </c>
+      <c r="G13" s="31">
+        <v>2.2989072856799502</v>
+      </c>
+      <c r="H13" s="31">
+        <v>5.3494784045216903</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="29">
+        <v>6</v>
+      </c>
+      <c r="C14" s="30">
+        <v>11</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="31">
+        <v>8.9100024163804203</v>
+      </c>
+      <c r="F14" s="31">
+        <v>5.4447831438866201</v>
+      </c>
+      <c r="G14" s="31">
+        <v>6.5887393165013499</v>
+      </c>
+      <c r="H14" s="31">
+        <v>3.4263361311294802</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30">
+        <v>12</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="31">
+        <v>8.0952580001168499</v>
+      </c>
+      <c r="F15" s="31">
+        <v>6.2928422718980297</v>
+      </c>
+      <c r="G15" s="31">
+        <v>10.2180750337474</v>
+      </c>
+      <c r="H15" s="31">
+        <v>2.11094075326691</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="29">
+        <v>7</v>
+      </c>
+      <c r="C16" s="30">
+        <v>13</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="31">
+        <v>18.870132056369801</v>
+      </c>
+      <c r="F16" s="31">
+        <v>10.6070131215185</v>
+      </c>
+      <c r="G16" s="31">
+        <v>8.2905485799935903</v>
+      </c>
+      <c r="H16" s="31">
+        <v>6.2449109302914403</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30">
+        <v>14</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="31">
+        <v>5.2181281349610504</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1.71841622772657</v>
+      </c>
+      <c r="G17" s="31">
+        <v>10.0695999090646</v>
+      </c>
+      <c r="H17" s="31">
+        <v>2.0929950810593301</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F69307D-6DAE-458B-B74C-060D6BF63BEA}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7">
+        <v>8.9669366773243997</v>
+      </c>
+      <c r="E3" s="7">
+        <v>6.7842690993458401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4.5503593621241301</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.5347535751477099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7">
+        <v>21.6489678920316</v>
+      </c>
+      <c r="E5" s="7">
+        <v>10.676289154651901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17.913162253135301</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7.0416341241945997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7.1232685697287197</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.47117106099964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12.966670137194599</v>
+      </c>
+      <c r="E12" s="7">
+        <v>18.4215097878688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3.9503046392702199</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3.8126204424514198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="6">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="7">
+        <v>11.2328358221187</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2.5620658065602999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Calibracion_errores.xlsx
+++ b/Calibracion_errores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a9cf9957cfd094d/Escritorio/Chaya^JPaula - Proyecto de Graduacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LabVision\Desktop\Chaya-Paula---Proyecto-de-Graduacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{D5CFD0A0-467C-42FE-9E04-B6A60A6D02E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5597EAE5-96DC-4DAA-AB2A-5CF5D6D6C78D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20982DD-AFF7-496F-8B2D-C1959779BA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="4" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibraciones" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Hoja2" sheetId="5" r:id="rId3"/>
     <sheet name="Cal. Pruebas Finales" sheetId="7" r:id="rId4"/>
     <sheet name="Cal. Pruebas Piloto" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja3" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="43">
   <si>
     <t>Sujeto</t>
   </si>
@@ -156,7 +157,19 @@
     <t>Calibración</t>
   </si>
   <si>
-    <t>Desviación Y [mm]</t>
+    <t xml:space="preserve"> Calibracion de 5 ptos.</t>
+  </si>
+  <si>
+    <t>Calibración de 16 ptos.</t>
+  </si>
+  <si>
+    <t>Desviación estándar</t>
+  </si>
+  <si>
+    <t>Error de  Calibración y Validación en Eje X [mm]</t>
+  </si>
+  <si>
+    <t>Error de Calibración y Validación en Eje Y [mm]</t>
   </si>
 </sst>
 </file>
@@ -166,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +207,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -243,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -329,11 +349,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,13 +538,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,19 +574,58 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1333,17 +1535,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Error de calibración </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>en eje  Y [mm]</a:t>
+              <a:rPr lang="es-AR" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Error de Calibración y Validación en Eje Y </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1388,11 +1588,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cal. Pruebas Piloto'!$D$10</c:f>
+              <c:f>'Cal. Pruebas Piloto'!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Error Y [mm]</c:v>
+                  <c:v> Calibracion de 5 ptos.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1421,67 +1621,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Cal. Pruebas Piloto'!$E$11:$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>4.47117106099964</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>18.4215097878688</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.8126204424514198</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.5620658065602999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Cal. Pruebas Piloto'!$E$11:$E$14</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>4.47117106099964</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>18.4215097878688</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.8126204424514198</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.5620658065602999</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>'Cal. Pruebas Piloto'!$D$11:$D$14</c:f>
+              <c:f>'Cal. Pruebas Piloto'!$B$9:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1503,7 +1645,73 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA94-4A33-A443-7DCEF90C1ADB}"/>
+              <c16:uniqueId val="{00000000-C5CB-4466-86E0-361B8CDC3C14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cal. Pruebas Piloto'!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calibración de 16 ptos.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cal. Pruebas Piloto'!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.6026676926960608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0936966884976398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0256738752794998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2989072856799502</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C5CB-4466-86E0-361B8CDC3C14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1517,11 +1725,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220085952"/>
-        <c:axId val="220101792"/>
+        <c:axId val="935402480"/>
+        <c:axId val="935403920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220085952"/>
+        <c:axId val="935402480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1756,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Prueba</a:t>
+                  <a:t>Ojo de prueba</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1618,7 +1826,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220101792"/>
+        <c:crossAx val="935403920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1626,10 +1834,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220101792"/>
+        <c:axId val="935403920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1668,7 +1875,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Milímetros</a:t>
+                  <a:t>Error en milímetros</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1733,7 +1940,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220085952"/>
+        <c:crossAx val="935402480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1746,7 +1953,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6561,17 +6768,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Error  de calibración </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>en eje X [mm]</a:t>
+              <a:rPr lang="es-AR"/>
+              <a:t>Error de Calibración y Validación en Eje X </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6609,18 +6807,18 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cal. Pruebas Piloto'!$D$2</c:f>
+              <c:f>'Cal. Pruebas Piloto'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Error X [mm]</c:v>
+                  <c:v> Calibracion de 5 ptos.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6649,67 +6847,72 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'Cal. Pruebas Piloto'!$E$3:$E$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>6.7842690993458401</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.5347535751477099</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>10.676289154651901</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.0416341241945997</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'Cal. Pruebas Piloto'!$E$3:$E$6</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>6.7842690993458401</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.5347535751477099</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>10.676289154651901</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>7.0416341241945997</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cal. Pruebas Piloto'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.9669366773243997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5503593621241301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.6489678920316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.913162253135301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD0D-4FC0-80BC-5118E9828C75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Cal. Pruebas Piloto'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calibración de 16 ptos.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:errBars>
+          </c:marker>
           <c:val>
             <c:numRef>
               <c:f>'Cal. Pruebas Piloto'!$D$3:$D$6</c:f>
@@ -6717,16 +6920,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.9669366773243997</c:v>
+                  <c:v>5.9020423152450698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5503593621241301</c:v>
+                  <c:v>2.44755300674165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.6489678920316</c:v>
+                  <c:v>7.2463032822057398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.913162253135301</c:v>
+                  <c:v>5.5478251379270596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6734,7 +6937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C7B-4ACC-B1DF-F00033E6FB85}"/>
+              <c16:uniqueId val="{00000001-AD0D-4FC0-80BC-5118E9828C75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6748,11 +6951,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220081152"/>
-        <c:axId val="220089312"/>
+        <c:axId val="1038327184"/>
+        <c:axId val="1038327664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220081152"/>
+        <c:axId val="1038327184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6779,7 +6982,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Prueba</a:t>
+                  <a:t>Ojo de prueba</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6849,7 +7052,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220089312"/>
+        <c:crossAx val="1038327664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6857,7 +7060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220089312"/>
+        <c:axId val="1038327664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,7 +7101,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Milímetros</a:t>
+                  <a:t>Error en milímetros</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6963,7 +7166,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220081152"/>
+        <c:crossAx val="1038327184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6976,7 +7179,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11978,7 +12181,7 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12788,22 +12991,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>335445</xdr:colOff>
+      <xdr:colOff>41412</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19877</xdr:rowOff>
+      <xdr:rowOff>24018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>306456</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>140803</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7">
+        <xdr:cNvPr id="5" name="Gráfico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B6E8C0-C545-41D7-B1C7-306503DDD0B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1E12317-D049-1F9F-6890-BDC7EA91851D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12823,23 +13026,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>160681</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>289890</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>46381</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546651</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9">
+        <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3976EC43-88E8-6C09-FE4E-2A1CF584F649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C88F3FFF-276A-6064-E02F-30759140632E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13223,18 +13426,18 @@
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="14"/>
@@ -13266,7 +13469,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6">
@@ -13301,7 +13504,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="6">
         <v>2</v>
       </c>
@@ -13334,7 +13537,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="6">
@@ -13369,7 +13572,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6">
         <v>4</v>
       </c>
@@ -14057,6 +14260,8 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E3:H3"/>
@@ -14070,8 +14275,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15933,8 +16136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04031061-6920-495F-BBCB-BEF72E8D7A53}">
   <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15983,315 +16186,317 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="5">
         <v>9.1137153383738099</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="5">
         <v>4.4971092413411604</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="5">
         <v>6.1406645086217004</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="5">
         <v>3.4079598141597902</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="30">
+      <c r="B5" s="27"/>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="7">
         <v>2.44755300674165</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="5">
         <v>2.5345306175524902</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="7">
         <v>3.0936966884976398</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="5">
         <v>2.4193174691633099</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <v>2</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="5">
         <v>8.9875394015453995</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="5">
         <v>2.0452539975528299</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="5">
         <v>8.5025327245788596</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="5">
         <v>5.31396963044876</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30">
+      <c r="B7" s="27"/>
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="7">
         <v>5.9020423152450698</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="5">
         <v>7.1906962552009901</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="5">
         <v>8.6026676926960608</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="5">
         <v>7.1562243918420103</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>3</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="5">
         <v>6.7437582400281704</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="5">
         <v>4.03839024941745</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="5">
         <v>9.2355964993933597</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="5">
         <v>5.9792444740617698</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="30">
+      <c r="B9" s="27"/>
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="5">
         <v>14.2317036040887</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="5">
         <v>4.0635973413950204</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="5">
         <v>9.0187109320150807</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="5">
         <v>6.40516047247272</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <v>4</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="2">
         <v>7</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="5">
         <v>7.2463032822057398</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="5">
         <v>6.9147551543461496</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="7">
         <v>5.0256738752794998</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="5">
         <v>3.29087145296279</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30">
+      <c r="B11" s="27"/>
+      <c r="C11" s="2">
         <v>8</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="5">
         <v>10.567001458043499</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="5">
         <v>3.0088470260778402</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="5">
         <v>7.2891147264368801</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="5">
         <v>3.59277062346627</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="29">
+      <c r="B12" s="27">
         <v>5</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="2">
         <v>9</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="7">
         <v>5.9515758273272903</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="5">
         <v>5.8300481802305404</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="5">
         <v>8.6528919421985293</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="5">
         <v>5.3147709201179101</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13" s="30">
+      <c r="B13" s="27"/>
+      <c r="C13" s="2">
         <v>10</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="7">
         <v>5.5478251379270596</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="5">
         <v>5.58131252406573</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="7">
         <v>2.2989072856799502</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="5">
         <v>5.3494784045216903</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+      <c r="B14" s="27">
         <v>6</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="2">
         <v>11</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="5">
         <v>8.9100024163804203</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="5">
         <v>5.4447831438866201</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="5">
         <v>6.5887393165013499</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="5">
         <v>3.4263361311294802</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15" s="30">
+      <c r="B15" s="27"/>
+      <c r="C15" s="2">
         <v>12</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="5">
         <v>8.0952580001168499</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="5">
         <v>6.2928422718980297</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="5">
         <v>10.2180750337474</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="5">
         <v>2.11094075326691</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="29">
+      <c r="B16" s="27">
         <v>7</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="2">
         <v>13</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="5">
         <v>18.870132056369801</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="5">
         <v>10.6070131215185</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="5">
         <v>8.2905485799935903</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="5">
         <v>6.2449109302914403</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="30">
+      <c r="B17" s="27"/>
+      <c r="C17" s="2">
         <v>14</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="7">
         <v>5.2181281349610504</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="5">
         <v>1.71841622772657</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="5">
         <v>10.0695999090646</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="5">
         <v>2.0929950810593301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B12:B13"/>
@@ -16301,8 +16506,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16311,219 +16514,233 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F69307D-6DAE-458B-B74C-060D6BF63BEA}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
+      <c r="B2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="28">
         <v>8.9669366773243997</v>
       </c>
-      <c r="E3" s="7">
+      <c r="C3" s="28">
         <v>6.7842690993458401</v>
+      </c>
+      <c r="D3" s="28">
+        <v>5.9020423152450698</v>
+      </c>
+      <c r="E3" s="37">
+        <v>7.1906962552009901</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="6">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="28">
         <v>4.5503593621241301</v>
       </c>
-      <c r="E4" s="7">
+      <c r="C4" s="28">
         <v>1.5347535751477099</v>
+      </c>
+      <c r="D4" s="28">
+        <v>2.44755300674165</v>
+      </c>
+      <c r="E4" s="37">
+        <v>2.5345306175524902</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="28">
         <v>21.6489678920316</v>
       </c>
-      <c r="E5" s="7">
+      <c r="C5" s="28">
         <v>10.676289154651901</v>
+      </c>
+      <c r="D5" s="28">
+        <v>7.2463032822057398</v>
+      </c>
+      <c r="E5" s="37">
+        <v>6.9147551543461496</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="6">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="28">
         <v>17.913162253135301</v>
       </c>
-      <c r="E6" s="7">
+      <c r="C6" s="28">
         <v>7.0416341241945997</v>
+      </c>
+      <c r="D6" s="28">
+        <v>5.5478251379270596</v>
+      </c>
+      <c r="E6" s="37">
+        <v>5.58131252406573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="39"/>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="28"/>
+      <c r="A9" s="36">
+        <v>1</v>
+      </c>
+      <c r="B9" s="28">
+        <v>7.1232685697287197</v>
+      </c>
+      <c r="C9" s="28">
+        <v>4.47117106099964</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8.6026676926960608</v>
+      </c>
+      <c r="E9" s="40">
+        <v>7.1562243918420103</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="28">
+        <v>12.966670137194599</v>
+      </c>
+      <c r="C10" s="28">
+        <v>18.4215097878688</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3.0936966884976398</v>
+      </c>
+      <c r="E10" s="40">
+        <v>2.4193174691633099</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7">
-        <v>7.1232685697287197</v>
-      </c>
-      <c r="E11" s="7">
-        <v>4.47117106099964</v>
+      <c r="A11" s="36">
+        <v>3</v>
+      </c>
+      <c r="B11" s="28">
+        <v>3.9503046392702199</v>
+      </c>
+      <c r="C11" s="28">
+        <v>3.8126204424514198</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.0256738752794998</v>
+      </c>
+      <c r="E11" s="40">
+        <v>3.29087145296279</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12.966670137194599</v>
-      </c>
-      <c r="E12" s="7">
-        <v>18.4215097878688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6">
-        <v>3</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3.9503046392702199</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3.8126204424514198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="6">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="41">
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B12" s="42">
         <v>11.2328358221187</v>
       </c>
-      <c r="E14" s="7">
+      <c r="C12" s="42">
         <v>2.5620658065602999</v>
+      </c>
+      <c r="D12" s="43">
+        <v>2.2989072856799502</v>
+      </c>
+      <c r="E12" s="44">
+        <v>5.3494784045216903</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9ABE77-E4A9-40AF-85F5-ED1E33B4A094}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Calibracion_errores.xlsx
+++ b/Calibracion_errores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LabVision\Desktop\Chaya-Paula---Proyecto-de-Graduacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a9cf9957cfd094d/Escritorio/Chaya^JPaula - Proyecto de Graduacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20982DD-AFF7-496F-8B2D-C1959779BA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D20982DD-AFF7-496F-8B2D-C1959779BA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF0F64D5-F495-406C-8788-AD0D09FD2D9F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="4" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1E7052BC-8115-4589-AFA9-2378D64808FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibraciones" sheetId="3" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,13 +535,37 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,15 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,38 +610,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1837,6 +1828,7 @@
         <c:axId val="935403920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12991,13 +12983,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>41412</xdr:colOff>
+      <xdr:colOff>41413</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>24018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>289891</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
@@ -13027,15 +13019,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>289890</xdr:colOff>
+      <xdr:colOff>16565</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>546651</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563217</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>8283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13402,47 +13394,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
@@ -13469,7 +13461,7 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="6">
@@ -13504,7 +13496,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6">
         <v>2</v>
       </c>
@@ -13537,7 +13529,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="6">
@@ -13572,7 +13564,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6">
         <v>4</v>
       </c>
@@ -13605,7 +13597,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="11">
@@ -13640,7 +13632,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="11">
         <v>6</v>
       </c>
@@ -13673,7 +13665,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="11">
@@ -13708,7 +13700,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="11">
         <v>8</v>
       </c>
@@ -13741,7 +13733,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="11">
@@ -13776,7 +13768,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="11">
         <v>10</v>
       </c>
@@ -13809,7 +13801,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="11">
@@ -13844,7 +13836,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="11">
         <v>14</v>
       </c>
@@ -13877,7 +13869,7 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="11">
@@ -13912,7 +13904,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="11">
         <v>16</v>
       </c>
@@ -13945,7 +13937,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="11">
@@ -13980,7 +13972,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="11">
         <v>19</v>
       </c>
@@ -14013,7 +14005,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="11">
@@ -14048,7 +14040,7 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="11">
         <v>21</v>
       </c>
@@ -14304,19 +14296,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -15239,13 +15231,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -15700,13 +15692,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
@@ -16152,26 +16144,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
@@ -16186,7 +16178,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="27">
+      <c r="B4" s="35">
         <v>1</v>
       </c>
       <c r="C4" s="2">
@@ -16209,7 +16201,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
@@ -16230,7 +16222,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
+      <c r="B6" s="35">
         <v>2</v>
       </c>
       <c r="C6" s="2">
@@ -16253,7 +16245,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="2">
         <v>4</v>
       </c>
@@ -16274,7 +16266,7 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="27">
+      <c r="B8" s="35">
         <v>3</v>
       </c>
       <c r="C8" s="2">
@@ -16297,7 +16289,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2">
         <v>6</v>
       </c>
@@ -16318,7 +16310,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="27">
+      <c r="B10" s="35">
         <v>4</v>
       </c>
       <c r="C10" s="2">
@@ -16341,7 +16333,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="2">
         <v>8</v>
       </c>
@@ -16362,7 +16354,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="27">
+      <c r="B12" s="35">
         <v>5</v>
       </c>
       <c r="C12" s="2">
@@ -16385,7 +16377,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="2">
         <v>10</v>
       </c>
@@ -16406,7 +16398,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="27">
+      <c r="B14" s="35">
         <v>6</v>
       </c>
       <c r="C14" s="2">
@@ -16429,7 +16421,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="2">
         <v>12</v>
       </c>
@@ -16450,7 +16442,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
+      <c r="B16" s="35">
         <v>7</v>
       </c>
       <c r="C16" s="2">
@@ -16473,7 +16465,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="2">
         <v>14</v>
       </c>
@@ -16495,17 +16487,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16516,8 +16508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F69307D-6DAE-458B-B74C-060D6BF63BEA}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16527,8 +16519,7 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -16536,190 +16527,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="5">
         <v>8.9669366773243997</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="5">
         <v>6.7842690993458401</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="5">
         <v>5.9020423152450698</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="18">
         <v>7.1906962552009901</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="5">
         <v>4.5503593621241301</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="5">
         <v>1.5347535751477099</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="5">
         <v>2.44755300674165</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="18">
         <v>2.5345306175524902</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="5">
         <v>21.6489678920316</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="5">
         <v>10.676289154651901</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="5">
         <v>7.2463032822057398</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="18">
         <v>6.9147551543461496</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="5">
         <v>17.913162253135301</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="5">
         <v>7.0416341241945997</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="5">
         <v>5.5478251379270596</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="18">
         <v>5.58131252406573</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="5">
         <v>7.1232685697287197</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="5">
         <v>4.47117106099964</v>
       </c>
       <c r="D9" s="5">
         <v>8.6026676926960608</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="18">
         <v>7.1562243918420103</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="5">
         <v>12.966670137194599</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="5">
         <v>18.4215097878688</v>
       </c>
       <c r="D10" s="5">
         <v>3.0936966884976398</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="18">
         <v>2.4193174691633099</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="5">
         <v>3.9503046392702199</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="5">
         <v>3.8126204424514198</v>
       </c>
       <c r="D11" s="5">
         <v>5.0256738752794998</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="18">
         <v>3.29087145296279</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+      <c r="A12" s="19">
         <v>4</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="20">
         <v>11.2328358221187</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="20">
         <v>2.5620658065602999</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="20">
         <v>2.2989072856799502</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="21">
         <v>5.3494784045216903</v>
       </c>
     </row>
